--- a/src/main/resources/formatos/Formato_5.xlsx
+++ b/src/main/resources/formatos/Formato_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" tabRatio="603"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" tabRatio="603" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-5" sheetId="27" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Anexo-5A'!$B$2:$N$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Anexo-5B'!$B$3:$L$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo-5C'!$B$2:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo-5C'!$B$2:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-5'!$B$2:$J$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -704,18 +704,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1263,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1601,21 +1595,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1652,25 +1631,22 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1703,28 +1679,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,7 +1715,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1786,10 +1762,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1881,7 +1857,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,17 +1893,47 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1935,31 +1941,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,17 +1992,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2004,19 +2007,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2046,146 +2151,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2196,6 +2166,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2205,13 +2193,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2226,13 +2214,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,74 +2232,26 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2319,11 +2262,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2846,14 +2816,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2901,14 +2871,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3308,7 +3278,7 @@
   </sheetPr>
   <dimension ref="B1:L914"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:I16"/>
     </sheetView>
   </sheetViews>
@@ -3333,68 +3303,68 @@
     <row r="1" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="16"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="234" t="s">
+      <c r="C3" s="206"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="235"/>
+      <c r="J3" s="239"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="213"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="214"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="208"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="162"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="156"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="232"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,15 +3381,15 @@
     </row>
     <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="227" t="s">
+      <c r="C8" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
       <c r="J8" s="21"/>
       <c r="K8" s="3"/>
     </row>
@@ -3437,17 +3407,17 @@
     </row>
     <row r="10" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="154" t="s">
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="148" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="22"/>
@@ -3455,63 +3425,63 @@
     </row>
     <row r="11" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="237" t="s">
+      <c r="D11" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="222"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="216"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="239" t="s">
+      <c r="D12" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="223"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="217"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="241" t="s">
+      <c r="D13" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="224"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="218"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="244" t="s">
+      <c r="C14" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="245"/>
-      <c r="E14" s="245"/>
-      <c r="F14" s="245"/>
-      <c r="G14" s="245"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="210">
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="204">
         <f>SUM(I11:I13)</f>
         <v>0</v>
       </c>
@@ -3532,15 +3502,15 @@
     </row>
     <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
-      <c r="C16" s="243" t="s">
+      <c r="C16" s="247" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="243"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
@@ -3551,110 +3521,110 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:12" s="26" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
-      <c r="C18" s="248" t="s">
+      <c r="C18" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="248"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="248" t="s">
+      <c r="H18" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="248"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="164"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="158"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:12" s="26" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="171"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="165"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="2:12" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="250" t="s">
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="250"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="166"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="160"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="168" t="s">
+      <c r="C21" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="251" t="s">
+      <c r="D21" s="162"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="251"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="168"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="162"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="2:12" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="183"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="177"/>
       <c r="K22" s="64"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="2:12" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="183"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="177"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
     <row r="24" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="236"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="240"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="7"/>
@@ -3676,15 +3646,15 @@
     </row>
     <row r="26" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
-      <c r="C26" s="252" t="s">
+      <c r="C26" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="252"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="176" t="s">
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="177" t="s">
+      <c r="G26" s="171" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="3"/>
@@ -3694,15 +3664,15 @@
     </row>
     <row r="27" spans="2:12" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
       <c r="F27" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="173">
+      <c r="G27" s="167">
         <v>2018</v>
       </c>
       <c r="H27" s="10"/>
@@ -3713,13 +3683,13 @@
     </row>
     <row r="28" spans="2:12" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
-      <c r="C28" s="247" t="s">
+      <c r="C28" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="247"/>
-      <c r="E28" s="247"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
       <c r="F28" s="37"/>
-      <c r="G28" s="173"/>
+      <c r="G28" s="167"/>
       <c r="H28" s="10"/>
       <c r="I28" s="8"/>
       <c r="J28" s="12"/>
@@ -3728,13 +3698,13 @@
     </row>
     <row r="29" spans="2:12" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
-      <c r="C29" s="247" t="s">
+      <c r="C29" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="247"/>
-      <c r="E29" s="247"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="173"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="12"/>
@@ -3743,13 +3713,13 @@
     </row>
     <row r="30" spans="2:12" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
-      <c r="C30" s="247" t="s">
+      <c r="C30" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="173"/>
+      <c r="G30" s="167"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="12"/>
@@ -3758,13 +3728,13 @@
     </row>
     <row r="31" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="33"/>
-      <c r="C31" s="233" t="s">
+      <c r="C31" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="175"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
@@ -3772,15 +3742,15 @@
       <c r="L31" s="34"/>
     </row>
     <row r="32" spans="2:12" s="31" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="119"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
     </row>
@@ -14372,12 +14342,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="D10:H10"/>
@@ -14394,6 +14358,12 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14436,51 +14406,51 @@
     <row r="1" spans="2:15" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="186"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="180"/>
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="300" t="s">
+      <c r="C3" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="286" t="s">
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="253" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
     </row>
     <row r="4" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="187"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="181"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14499,21 +14469,21 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="267" t="s">
+      <c r="B6" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="269"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="277"/>
     </row>
     <row r="7" spans="2:15" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="44"/>
@@ -14533,19 +14503,19 @@
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="289" t="s">
+      <c r="C8" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="256"/>
+      <c r="M8" s="256"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14565,55 +14535,55 @@
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="277" t="s">
+      <c r="C10" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="278"/>
-      <c r="E10" s="277" t="s">
+      <c r="D10" s="270"/>
+      <c r="E10" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="294" t="s">
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="296"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="263"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="290" t="s">
+      <c r="C11" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="292" t="s">
+      <c r="D11" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="283" t="s">
+      <c r="E11" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="284"/>
-      <c r="G11" s="285"/>
-      <c r="H11" s="275" t="s">
+      <c r="F11" s="288"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="297" t="s">
+      <c r="I11" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="270" t="s">
+      <c r="J11" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="275" t="s">
+      <c r="K11" s="266" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="275" t="s">
+      <c r="L11" s="266" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="275" t="s">
+      <c r="M11" s="266" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="6"/>
@@ -14621,23 +14591,23 @@
     </row>
     <row r="12" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="209" t="s">
+      <c r="C12" s="258"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="276"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="271"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:15" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14706,78 +14676,78 @@
     </row>
     <row r="17" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="49"/>
-      <c r="C17" s="264" t="s">
+      <c r="C17" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="265"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="265"/>
-      <c r="G17" s="265"/>
-      <c r="H17" s="265"/>
-      <c r="I17" s="265"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="131">
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="273"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="125">
         <f>SUM(K13:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="131">
+      <c r="L17" s="125">
         <f>SUM(L13:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="272"/>
+      <c r="M17" s="280"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="273"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="281"/>
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="273"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="281"/>
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
-      <c r="C20" s="264" t="s">
+      <c r="C20" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="265"/>
-      <c r="J20" s="266"/>
-      <c r="K20" s="279">
+      <c r="D20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="283">
         <f>SUM(K17:L17)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="280"/>
-      <c r="M20" s="274"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="282"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7"/>
     </row>
@@ -14799,35 +14769,35 @@
     </row>
     <row r="22" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
-      <c r="C22" s="281" t="s">
+      <c r="C22" s="285" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="281"/>
-      <c r="E22" s="281"/>
-      <c r="F22" s="281"/>
-      <c r="G22" s="281"/>
-      <c r="H22" s="281"/>
-      <c r="I22" s="281"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="281"/>
-      <c r="L22" s="281"/>
-      <c r="M22" s="281"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="285"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="282"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="282"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="286"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="286"/>
+      <c r="H23" s="286"/>
+      <c r="I23" s="286"/>
+      <c r="J23" s="286"/>
+      <c r="K23" s="286"/>
+      <c r="L23" s="286"/>
+      <c r="M23" s="286"/>
       <c r="N23" s="6"/>
       <c r="O23" s="7"/>
     </row>
@@ -14849,233 +14819,233 @@
     </row>
     <row r="25" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
-      <c r="C25" s="248" t="s">
+      <c r="C25" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="248"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="248"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
       <c r="G25" s="61"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="248" t="s">
+      <c r="J25" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="248"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="248"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
       <c r="N25" s="6"/>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="61"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="164"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="3"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="256" t="s">
+      <c r="C27" s="293" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="256"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
+      <c r="D27" s="293"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="139"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="250" t="s">
+      <c r="J27" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="250"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="168" t="s">
+      <c r="C28" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="139"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="165" t="s">
+      <c r="J28" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="165"/>
+      <c r="K28" s="159"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="153"/>
+      <c r="M28" s="147"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="189"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="183"/>
       <c r="J29" s="47"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="189"/>
-      <c r="M29" s="189"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="146"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="140"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
-      <c r="C31" s="260" t="s">
+      <c r="C31" s="297" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="261"/>
-      <c r="K31" s="254" t="s">
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="254"/>
-      <c r="M31" s="254"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="291"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="243"/>
-      <c r="J32" s="261"/>
-      <c r="K32" s="215">
+      <c r="C32" s="247"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="298"/>
+      <c r="K32" s="209">
         <v>1</v>
       </c>
-      <c r="L32" s="258" t="s">
+      <c r="L32" s="295" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="258"/>
+      <c r="M32" s="295"/>
       <c r="N32" s="6"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="261"/>
-      <c r="K33" s="215">
+      <c r="C33" s="247"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="298"/>
+      <c r="K33" s="209">
         <v>2</v>
       </c>
-      <c r="L33" s="258" t="s">
+      <c r="L33" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="258"/>
+      <c r="M33" s="295"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
-      <c r="G34" s="243"/>
-      <c r="H34" s="243"/>
-      <c r="I34" s="243"/>
-      <c r="J34" s="261"/>
-      <c r="K34" s="215">
+      <c r="C34" s="247"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="298"/>
+      <c r="K34" s="209">
         <v>3</v>
       </c>
-      <c r="L34" s="258" t="s">
+      <c r="L34" s="295" t="s">
         <v>92</v>
       </c>
-      <c r="M34" s="258"/>
+      <c r="M34" s="295"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="215">
+      <c r="C35" s="247"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="247"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="298"/>
+      <c r="K35" s="209">
         <v>4</v>
       </c>
-      <c r="L35" s="258" t="s">
+      <c r="L35" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="M35" s="258"/>
+      <c r="M35" s="295"/>
       <c r="N35" s="6"/>
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
-      <c r="C36" s="262"/>
-      <c r="D36" s="262"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="262"/>
-      <c r="G36" s="262"/>
-      <c r="H36" s="262"/>
-      <c r="I36" s="262"/>
-      <c r="J36" s="263"/>
-      <c r="K36" s="216">
+      <c r="C36" s="299"/>
+      <c r="D36" s="299"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="299"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="210">
         <v>5</v>
       </c>
-      <c r="L36" s="259" t="s">
+      <c r="L36" s="296" t="s">
         <v>94</v>
       </c>
-      <c r="M36" s="259"/>
+      <c r="M36" s="296"/>
       <c r="N36" s="68"/>
       <c r="O36" s="7"/>
     </row>
@@ -15096,94 +15066,70 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C38" s="255"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="255"/>
-      <c r="F38" s="255"/>
-      <c r="G38" s="255"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="292"/>
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="255"/>
-      <c r="F39" s="255"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="255"/>
-      <c r="I39" s="255"/>
+      <c r="C39" s="292"/>
+      <c r="D39" s="292"/>
+      <c r="E39" s="292"/>
+      <c r="F39" s="292"/>
+      <c r="G39" s="292"/>
+      <c r="H39" s="292"/>
+      <c r="I39" s="292"/>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C40" s="253"/>
-      <c r="D40" s="253"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="253"/>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C41" s="257"/>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="257"/>
+      <c r="C41" s="294"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C43" s="253"/>
-      <c r="D43" s="253"/>
-      <c r="E43" s="253"/>
-      <c r="F43" s="253"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="253"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C44" s="255"/>
-      <c r="D44" s="255"/>
-      <c r="E44" s="255"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="255"/>
-      <c r="H44" s="255"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="255"/>
+      <c r="C44" s="292"/>
+      <c r="D44" s="292"/>
+      <c r="E44" s="292"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="292"/>
+      <c r="H44" s="292"/>
+      <c r="I44" s="292"/>
+      <c r="J44" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="E11:G11"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="C44:J44"/>
@@ -15199,6 +15145,30 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="C31:J36"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15216,8 +15186,8 @@
   </sheetPr>
   <dimension ref="B2:P651"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:IV19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15241,45 +15211,45 @@
     <row r="2" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" s="3" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="186"/>
+      <c r="K3" s="180"/>
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
       <c r="J4" s="42"/>
-      <c r="K4" s="306" t="s">
+      <c r="K4" s="333" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="307"/>
+      <c r="L4" s="334"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
       <c r="J5" s="42"/>
-      <c r="K5" s="187"/>
+      <c r="K5" s="181"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:16" s="3" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15294,19 +15264,19 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="232"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="236"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -15331,15 +15301,15 @@
     </row>
     <row r="9" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="334"/>
-      <c r="D9" s="334"/>
-      <c r="E9" s="334"/>
-      <c r="F9" s="334"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="334"/>
-      <c r="I9" s="334"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="334"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="310"/>
+      <c r="J9" s="310"/>
+      <c r="K9" s="310"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15357,26 +15327,26 @@
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="310"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="310"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="311"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="311"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -15385,157 +15355,157 @@
     </row>
     <row r="13" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="331" t="s">
+      <c r="D13" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="332"/>
-      <c r="F13" s="333"/>
-      <c r="G13" s="331" t="s">
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="333"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="308"/>
+      <c r="J13" s="308"/>
+      <c r="K13" s="309"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:16" s="31" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="283" t="s">
+      <c r="E14" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="305"/>
-      <c r="G14" s="150" t="s">
+      <c r="F14" s="332"/>
+      <c r="G14" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="331" t="s">
+      <c r="H14" s="307" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="332"/>
-      <c r="J14" s="332"/>
-      <c r="K14" s="333"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="308"/>
+      <c r="K14" s="309"/>
       <c r="L14" s="30"/>
     </row>
     <row r="15" spans="2:16" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
       <c r="D15" s="74"/>
-      <c r="E15" s="192"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="51"/>
       <c r="G15" s="84"/>
-      <c r="H15" s="321"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="323"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="320"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="321"/>
       <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:16" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="49"/>
       <c r="C16" s="54"/>
       <c r="D16" s="75"/>
-      <c r="E16" s="193"/>
+      <c r="E16" s="187"/>
       <c r="F16" s="55"/>
       <c r="G16" s="85"/>
-      <c r="H16" s="311"/>
-      <c r="I16" s="312"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="313"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="304"/>
+      <c r="J16" s="304"/>
+      <c r="K16" s="305"/>
       <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:12" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="49"/>
       <c r="C17" s="54"/>
       <c r="D17" s="75"/>
-      <c r="E17" s="193"/>
+      <c r="E17" s="187"/>
       <c r="F17" s="55"/>
       <c r="G17" s="85"/>
-      <c r="H17" s="311"/>
-      <c r="I17" s="312"/>
-      <c r="J17" s="312"/>
-      <c r="K17" s="313"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="304"/>
+      <c r="K17" s="305"/>
       <c r="L17" s="52"/>
     </row>
     <row r="18" spans="2:12" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="49"/>
       <c r="C18" s="54"/>
       <c r="D18" s="75"/>
-      <c r="E18" s="193"/>
+      <c r="E18" s="187"/>
       <c r="F18" s="55"/>
       <c r="G18" s="85"/>
-      <c r="H18" s="311"/>
-      <c r="I18" s="312"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="313"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="305"/>
       <c r="L18" s="52"/>
     </row>
     <row r="19" spans="2:12" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="49"/>
       <c r="C19" s="58"/>
       <c r="D19" s="76"/>
-      <c r="E19" s="194"/>
+      <c r="E19" s="188"/>
       <c r="F19" s="59"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="314"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="316"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="313"/>
+      <c r="J19" s="313"/>
+      <c r="K19" s="314"/>
       <c r="L19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="324" t="s">
+      <c r="C20" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="326"/>
-      <c r="G20" s="211">
+      <c r="D20" s="324"/>
+      <c r="E20" s="324"/>
+      <c r="F20" s="325"/>
+      <c r="G20" s="205">
         <f>SUM(G15:G19)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="317"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
-      <c r="K20" s="319"/>
+      <c r="H20" s="315"/>
+      <c r="I20" s="316"/>
+      <c r="J20" s="316"/>
+      <c r="K20" s="317"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="330" t="s">
+      <c r="C21" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="330"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="330"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="306"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
+      <c r="K21" s="306"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
-      <c r="C22" s="330" t="s">
+      <c r="C22" s="306" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="330"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330"/>
-      <c r="K22" s="330"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="306"/>
+      <c r="G22" s="306"/>
+      <c r="H22" s="306"/>
+      <c r="I22" s="306"/>
+      <c r="J22" s="306"/>
+      <c r="K22" s="306"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15547,8 +15517,8 @@
       <c r="G23" s="81"/>
       <c r="H23" s="42"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15560,8 +15530,8 @@
       <c r="G24" s="81"/>
       <c r="H24" s="42"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15573,149 +15543,149 @@
       <c r="G25" s="81"/>
       <c r="H25" s="42"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="248"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
       <c r="G26" s="81"/>
-      <c r="H26" s="248" t="s">
+      <c r="H26" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="248"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="248"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="81"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="164"/>
+      <c r="J27" s="158"/>
       <c r="K27" s="3"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="250" t="s">
+      <c r="C28" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="250"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="81"/>
-      <c r="H28" s="250" t="s">
+      <c r="H28" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
+      <c r="I28" s="226"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="226"/>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="81"/>
-      <c r="H29" s="251" t="s">
+      <c r="H29" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="251"/>
-      <c r="J29" s="251"/>
-      <c r="K29" s="251"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="227"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="189"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="189"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="C33" s="301" t="s">
+      <c r="C33" s="328" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="302"/>
-      <c r="E33" s="302"/>
-      <c r="F33" s="302"/>
-      <c r="G33" s="302"/>
-      <c r="H33" s="302"/>
-      <c r="I33" s="302"/>
-      <c r="J33" s="304" t="s">
+      <c r="D33" s="329"/>
+      <c r="E33" s="329"/>
+      <c r="F33" s="329"/>
+      <c r="G33" s="329"/>
+      <c r="H33" s="329"/>
+      <c r="I33" s="329"/>
+      <c r="J33" s="331" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="304"/>
+      <c r="K33" s="331"/>
       <c r="L33" s="2"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="302"/>
-      <c r="I34" s="302"/>
-      <c r="J34" s="202">
+      <c r="C34" s="329"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="329"/>
+      <c r="F34" s="329"/>
+      <c r="G34" s="329"/>
+      <c r="H34" s="329"/>
+      <c r="I34" s="329"/>
+      <c r="J34" s="196">
         <v>1</v>
       </c>
-      <c r="K34" s="158" t="s">
+      <c r="K34" s="152" t="s">
         <v>81</v>
       </c>
       <c r="L34" s="2"/>
@@ -15724,17 +15694,17 @@
     </row>
     <row r="35" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="C35" s="302"/>
-      <c r="D35" s="302"/>
-      <c r="E35" s="302"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="302"/>
-      <c r="H35" s="302"/>
-      <c r="I35" s="302"/>
-      <c r="J35" s="202">
+      <c r="C35" s="329"/>
+      <c r="D35" s="329"/>
+      <c r="E35" s="329"/>
+      <c r="F35" s="329"/>
+      <c r="G35" s="329"/>
+      <c r="H35" s="329"/>
+      <c r="I35" s="329"/>
+      <c r="J35" s="196">
         <v>2</v>
       </c>
-      <c r="K35" s="158" t="s">
+      <c r="K35" s="152" t="s">
         <v>82</v>
       </c>
       <c r="L35" s="2"/>
@@ -15743,17 +15713,17 @@
     </row>
     <row r="36" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="C36" s="302"/>
-      <c r="D36" s="302"/>
-      <c r="E36" s="302"/>
-      <c r="F36" s="302"/>
-      <c r="G36" s="302"/>
-      <c r="H36" s="302"/>
-      <c r="I36" s="302"/>
-      <c r="J36" s="203">
+      <c r="C36" s="329"/>
+      <c r="D36" s="329"/>
+      <c r="E36" s="329"/>
+      <c r="F36" s="329"/>
+      <c r="G36" s="329"/>
+      <c r="H36" s="329"/>
+      <c r="I36" s="329"/>
+      <c r="J36" s="197">
         <v>3</v>
       </c>
-      <c r="K36" s="158" t="s">
+      <c r="K36" s="152" t="s">
         <v>83</v>
       </c>
       <c r="L36" s="2"/>
@@ -15762,17 +15732,17 @@
     </row>
     <row r="37" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="C37" s="302"/>
-      <c r="D37" s="302"/>
-      <c r="E37" s="302"/>
-      <c r="F37" s="302"/>
-      <c r="G37" s="302"/>
-      <c r="H37" s="302"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="203">
+      <c r="C37" s="329"/>
+      <c r="D37" s="329"/>
+      <c r="E37" s="329"/>
+      <c r="F37" s="329"/>
+      <c r="G37" s="329"/>
+      <c r="H37" s="329"/>
+      <c r="I37" s="329"/>
+      <c r="J37" s="197">
         <v>4</v>
       </c>
-      <c r="K37" s="158" t="s">
+      <c r="K37" s="152" t="s">
         <v>84</v>
       </c>
       <c r="L37" s="2"/>
@@ -15781,17 +15751,17 @@
     </row>
     <row r="38" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="C38" s="302"/>
-      <c r="D38" s="302"/>
-      <c r="E38" s="302"/>
-      <c r="F38" s="302"/>
-      <c r="G38" s="302"/>
-      <c r="H38" s="302"/>
-      <c r="I38" s="302"/>
-      <c r="J38" s="203">
+      <c r="C38" s="329"/>
+      <c r="D38" s="329"/>
+      <c r="E38" s="329"/>
+      <c r="F38" s="329"/>
+      <c r="G38" s="329"/>
+      <c r="H38" s="329"/>
+      <c r="I38" s="329"/>
+      <c r="J38" s="197">
         <v>5</v>
       </c>
-      <c r="K38" s="158" t="s">
+      <c r="K38" s="152" t="s">
         <v>85</v>
       </c>
       <c r="L38" s="2"/>
@@ -15799,21 +15769,21 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="204"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
-      <c r="G39" s="303"/>
-      <c r="H39" s="303"/>
-      <c r="I39" s="303"/>
-      <c r="J39" s="205">
+      <c r="B39" s="198"/>
+      <c r="C39" s="330"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="199">
         <v>6</v>
       </c>
-      <c r="K39" s="206" t="s">
+      <c r="K39" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="207"/>
+      <c r="L39" s="201"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
@@ -15845,39 +15815,39 @@
     </row>
     <row r="42" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="26"/>
-      <c r="C42" s="328" t="s">
+      <c r="C42" s="327" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="328"/>
-      <c r="E42" s="328"/>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
+      <c r="D42" s="327"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="327"/>
+      <c r="I42" s="327"/>
       <c r="J42" s="70"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="26"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
       <c r="J43" s="70"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
     </row>
     <row r="44" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
-      <c r="C44" s="309"/>
-      <c r="D44" s="309"/>
-      <c r="E44" s="309"/>
-      <c r="F44" s="309"/>
-      <c r="G44" s="309"/>
+      <c r="C44" s="302"/>
+      <c r="D44" s="302"/>
+      <c r="E44" s="302"/>
+      <c r="F44" s="302"/>
+      <c r="G44" s="302"/>
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="70"/>
@@ -15886,40 +15856,40 @@
     </row>
     <row r="45" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="26"/>
-      <c r="C45" s="327"/>
-      <c r="D45" s="327"/>
-      <c r="E45" s="327"/>
-      <c r="F45" s="327"/>
-      <c r="G45" s="327"/>
-      <c r="H45" s="327"/>
-      <c r="I45" s="327"/>
+      <c r="C45" s="326"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
+      <c r="G45" s="326"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
       <c r="J45" s="70"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
     </row>
     <row r="46" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="26"/>
-      <c r="C46" s="308" t="s">
+      <c r="C46" s="322" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="308"/>
-      <c r="E46" s="308"/>
-      <c r="F46" s="308"/>
-      <c r="G46" s="308"/>
-      <c r="H46" s="308"/>
-      <c r="I46" s="155"/>
+      <c r="D46" s="322"/>
+      <c r="E46" s="322"/>
+      <c r="F46" s="322"/>
+      <c r="G46" s="322"/>
+      <c r="H46" s="322"/>
+      <c r="I46" s="149"/>
       <c r="J46" s="70"/>
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
     </row>
     <row r="47" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="26"/>
-      <c r="C47" s="327"/>
-      <c r="D47" s="327"/>
-      <c r="E47" s="327"/>
-      <c r="F47" s="327"/>
-      <c r="G47" s="327"/>
-      <c r="H47" s="327"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
       <c r="I47" s="63"/>
       <c r="J47" s="70"/>
       <c r="K47" s="26"/>
@@ -15927,26 +15897,26 @@
     </row>
     <row r="48" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="26"/>
-      <c r="C48" s="308"/>
-      <c r="D48" s="308"/>
-      <c r="E48" s="308"/>
-      <c r="F48" s="308"/>
-      <c r="G48" s="308"/>
-      <c r="H48" s="308"/>
-      <c r="I48" s="155"/>
+      <c r="C48" s="322"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="322"/>
+      <c r="G48" s="322"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="149"/>
       <c r="J48" s="70"/>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
     </row>
     <row r="49" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="26"/>
-      <c r="C49" s="309"/>
-      <c r="D49" s="309"/>
-      <c r="E49" s="309"/>
-      <c r="F49" s="309"/>
-      <c r="G49" s="309"/>
-      <c r="H49" s="309"/>
-      <c r="I49" s="309"/>
+      <c r="C49" s="302"/>
+      <c r="D49" s="302"/>
+      <c r="E49" s="302"/>
+      <c r="F49" s="302"/>
+      <c r="G49" s="302"/>
+      <c r="H49" s="302"/>
+      <c r="I49" s="302"/>
       <c r="J49" s="70"/>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
@@ -23779,19 +23749,9 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C49:I49"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="H17:K17"/>
@@ -23808,11 +23768,21 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C33:I39"/>
     <mergeCell ref="J33:K33"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -23828,10 +23798,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L1729"/>
+  <dimension ref="B1:L1723"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -23855,61 +23825,61 @@
     <row r="1" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="197"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="191"/>
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="2:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="286" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="287"/>
-      <c r="L3" s="288"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="255"/>
     </row>
     <row r="4" spans="2:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="198"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="192"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="338" t="s">
+      <c r="B5" s="344" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="339"/>
-      <c r="K5" s="339"/>
-      <c r="L5" s="340"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="346"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
@@ -23926,15 +23896,15 @@
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="334"/>
-      <c r="J7" s="334"/>
-      <c r="K7" s="334"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="310"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23952,93 +23922,93 @@
     </row>
     <row r="9" spans="2:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="256" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" s="26" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="331" t="s">
+      <c r="D10" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="333"/>
-      <c r="F10" s="341" t="s">
+      <c r="E10" s="309"/>
+      <c r="F10" s="347" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="342"/>
-      <c r="H10" s="342"/>
-      <c r="I10" s="342"/>
-      <c r="J10" s="342"/>
-      <c r="K10" s="335" t="s">
+      <c r="G10" s="348"/>
+      <c r="H10" s="348"/>
+      <c r="I10" s="348"/>
+      <c r="J10" s="348"/>
+      <c r="K10" s="342" t="s">
         <v>77</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="290" t="s">
+      <c r="C11" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="270" t="s">
+      <c r="D11" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="350" t="s">
+      <c r="E11" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="348" t="s">
+      <c r="F11" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="350" t="s">
+      <c r="G11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="350" t="s">
+      <c r="H11" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="355" t="s">
+      <c r="I11" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="297" t="s">
+      <c r="J11" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="336"/>
+      <c r="K11" s="343"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" s="31" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="347"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="351"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="351"/>
-      <c r="H12" s="351"/>
-      <c r="I12" s="356"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="337"/>
-      <c r="L12" s="30"/>
+    <row r="12" spans="2:12" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="84"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="124"/>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:12" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24051,10 +24021,10 @@
       <c r="H14" s="111"/>
       <c r="I14" s="109"/>
       <c r="J14" s="112"/>
-      <c r="K14" s="129"/>
+      <c r="K14" s="124"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="2:12" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="108"/>
       <c r="D15" s="109"/>
@@ -24064,431 +24034,416 @@
       <c r="H15" s="111"/>
       <c r="I15" s="109"/>
       <c r="J15" s="112"/>
-      <c r="K15" s="129"/>
+      <c r="K15" s="124"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="2:12" s="48" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="52"/>
-    </row>
-    <row r="17" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="113" t="e">
-        <f>+#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="113" t="e">
-        <f>+C17+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="113" t="e">
-        <f>+C18+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="113" t="e">
-        <f>+C19+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="113" t="e">
-        <f>+C20+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" s="128" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="126"/>
-      <c r="C22" s="324" t="s">
+    <row r="16" spans="2:12" s="123" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="121"/>
+      <c r="C16" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="208">
-        <f>SUM(K13:K21)</f>
+      <c r="D16" s="324"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="324"/>
+      <c r="G16" s="324"/>
+      <c r="H16" s="324"/>
+      <c r="I16" s="324"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="202">
+        <f>SUM(K12:K15)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="127"/>
-    </row>
-    <row r="23" spans="2:12" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="52"/>
-    </row>
-    <row r="24" spans="2:12" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="282" t="s">
+      <c r="L16" s="122"/>
+    </row>
+    <row r="17" spans="2:12" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="49"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="2:12" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="27"/>
+      <c r="C18" s="286" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="2:12" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="282" t="s">
+      <c r="D18" s="286"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="286"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="286"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="2:12" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
+      <c r="C19" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="282"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="282"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-      <c r="C28" s="248" t="s">
+      <c r="D19" s="286"/>
+      <c r="E19" s="286"/>
+      <c r="F19" s="286"/>
+      <c r="G19" s="286"/>
+      <c r="H19" s="286"/>
+      <c r="I19" s="286"/>
+      <c r="J19" s="286"/>
+      <c r="K19" s="286"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="248"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="248" t="s">
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="248"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="248"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="250" t="s">
+      <c r="I22" s="251"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="250"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="250" t="s">
+      <c r="D23" s="226"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="168" t="s">
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="251" t="s">
+      <c r="D24" s="162"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="251"/>
-      <c r="J30" s="251"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="168" t="s">
+      <c r="I24" s="227"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="168" t="s">
+      <c r="D25" s="162"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="353"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="353"/>
-      <c r="F33" s="353"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="354"/>
-      <c r="K33" s="354"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="327" t="s">
+      <c r="D26" s="162"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="336"/>
+      <c r="D27" s="336"/>
+      <c r="E27" s="336"/>
+      <c r="F27" s="336"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="337"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="326" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="327"/>
-      <c r="E34" s="327"/>
-      <c r="F34" s="327"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
-      <c r="J34" s="352"/>
-      <c r="K34" s="352"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="327" t="s">
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="335"/>
+      <c r="K28" s="335"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327"/>
-      <c r="J35" s="345" t="s">
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="340" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="346"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="309" t="s">
+      <c r="K29" s="341"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="302" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="309"/>
-      <c r="E36" s="309"/>
-      <c r="F36" s="309"/>
-      <c r="G36" s="309"/>
-      <c r="H36" s="309"/>
-      <c r="I36" s="309"/>
-      <c r="J36" s="219">
+      <c r="D30" s="302"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="213">
         <v>1</v>
       </c>
-      <c r="K36" s="218" t="s">
+      <c r="K30" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="327" t="s">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="327"/>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="220">
+      <c r="D31" s="326"/>
+      <c r="E31" s="326"/>
+      <c r="F31" s="326"/>
+      <c r="G31" s="326"/>
+      <c r="H31" s="326"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="214">
         <v>2</v>
       </c>
-      <c r="K37" s="218" t="s">
+      <c r="K31" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="309" t="s">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="309"/>
-      <c r="E38" s="309"/>
-      <c r="F38" s="309"/>
-      <c r="G38" s="309"/>
-      <c r="H38" s="309"/>
-      <c r="I38" s="309"/>
-      <c r="J38" s="220">
+      <c r="D32" s="302"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="214">
         <v>3</v>
       </c>
-      <c r="K38" s="218" t="s">
+      <c r="K32" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="327"/>
-      <c r="D39" s="327"/>
-      <c r="E39" s="327"/>
-      <c r="F39" s="327"/>
-      <c r="G39" s="327"/>
-      <c r="H39" s="327"/>
-      <c r="I39" s="327"/>
-      <c r="J39" s="220">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="326"/>
+      <c r="D33" s="326"/>
+      <c r="E33" s="326"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="214">
         <v>4</v>
       </c>
-      <c r="K39" s="218" t="s">
+      <c r="K33" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="220">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="339"/>
+      <c r="D34" s="339"/>
+      <c r="E34" s="339"/>
+      <c r="F34" s="339"/>
+      <c r="G34" s="339"/>
+      <c r="H34" s="339"/>
+      <c r="I34" s="339"/>
+      <c r="J34" s="214">
         <v>5</v>
       </c>
-      <c r="K40" s="218" t="s">
+      <c r="K34" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="2:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="343"/>
-      <c r="K41" s="343"/>
-      <c r="L41" s="68"/>
-    </row>
-    <row r="42" spans="2:12" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="68"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="66"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="338"/>
+      <c r="K35" s="338"/>
+      <c r="L35" s="68"/>
+    </row>
+    <row r="36" spans="2:12" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="66"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="68"/>
+    </row>
+    <row r="37" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="26"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="26"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="26"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="26"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="26"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="26"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="26"/>
@@ -46343,122 +46298,36 @@
       <c r="K1723" s="82"/>
       <c r="L1723" s="26"/>
     </row>
-    <row r="1724" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1724" s="26"/>
-      <c r="C1724" s="69"/>
-      <c r="D1724" s="26"/>
-      <c r="E1724" s="70"/>
-      <c r="F1724" s="70"/>
-      <c r="G1724" s="70"/>
-      <c r="H1724" s="70"/>
-      <c r="I1724" s="26"/>
-      <c r="J1724" s="26"/>
-      <c r="K1724" s="82"/>
-      <c r="L1724" s="26"/>
-    </row>
-    <row r="1725" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1725" s="26"/>
-      <c r="C1725" s="69"/>
-      <c r="D1725" s="26"/>
-      <c r="E1725" s="70"/>
-      <c r="F1725" s="70"/>
-      <c r="G1725" s="70"/>
-      <c r="H1725" s="70"/>
-      <c r="I1725" s="26"/>
-      <c r="J1725" s="26"/>
-      <c r="K1725" s="82"/>
-      <c r="L1725" s="26"/>
-    </row>
-    <row r="1726" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1726" s="26"/>
-      <c r="C1726" s="69"/>
-      <c r="D1726" s="26"/>
-      <c r="E1726" s="70"/>
-      <c r="F1726" s="70"/>
-      <c r="G1726" s="70"/>
-      <c r="H1726" s="70"/>
-      <c r="I1726" s="26"/>
-      <c r="J1726" s="26"/>
-      <c r="K1726" s="82"/>
-      <c r="L1726" s="26"/>
-    </row>
-    <row r="1727" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1727" s="26"/>
-      <c r="C1727" s="69"/>
-      <c r="D1727" s="26"/>
-      <c r="E1727" s="70"/>
-      <c r="F1727" s="70"/>
-      <c r="G1727" s="70"/>
-      <c r="H1727" s="70"/>
-      <c r="I1727" s="26"/>
-      <c r="J1727" s="26"/>
-      <c r="K1727" s="82"/>
-      <c r="L1727" s="26"/>
-    </row>
-    <row r="1728" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1728" s="26"/>
-      <c r="C1728" s="69"/>
-      <c r="D1728" s="26"/>
-      <c r="E1728" s="70"/>
-      <c r="F1728" s="70"/>
-      <c r="G1728" s="70"/>
-      <c r="H1728" s="70"/>
-      <c r="I1728" s="26"/>
-      <c r="J1728" s="26"/>
-      <c r="K1728" s="82"/>
-      <c r="L1728" s="26"/>
-    </row>
-    <row r="1729" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1729" s="26"/>
-      <c r="C1729" s="69"/>
-      <c r="D1729" s="26"/>
-      <c r="E1729" s="70"/>
-      <c r="F1729" s="70"/>
-      <c r="G1729" s="70"/>
-      <c r="H1729" s="70"/>
-      <c r="I1729" s="26"/>
-      <c r="J1729" s="26"/>
-      <c r="K1729" s="82"/>
-      <c r="L1729" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
+  <mergeCells count="28">
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="C7:K7"/>
-    <mergeCell ref="J11:J12"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="F10:J10"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
